--- a/Design/资源说明.xlsx
+++ b/Design/资源说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17670" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="金属类" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>资源名称</t>
   </si>
@@ -24,7 +24,16 @@
     <t>状态</t>
   </si>
   <si>
-    <t>矿产</t>
+    <t>硬度</t>
+  </si>
+  <si>
+    <t>导电性</t>
+  </si>
+  <si>
+    <t>腐蚀性</t>
+  </si>
+  <si>
+    <t>熔点</t>
   </si>
   <si>
     <t>金</t>
@@ -33,9 +42,6 @@
     <t>固体</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>银</t>
   </si>
   <si>
@@ -48,7 +54,10 @@
     <t>钢</t>
   </si>
   <si>
-    <t>否</t>
+    <t>铝</t>
+  </si>
+  <si>
+    <t>透明度</t>
   </si>
   <si>
     <t>木</t>
@@ -68,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,14 +99,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei UI"/>
       <charset val="134"/>
@@ -111,6 +120,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -118,14 +181,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,22 +201,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,39 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,15 +242,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,22 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +456,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,41 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -539,172 +556,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,13 +716,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1071,84 +1070,159 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="12.4545454545455" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.36363636363636" style="4" customWidth="1"/>
-    <col min="3" max="4" width="9" style="4"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="12.6363636363636" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.4545454545455" style="2" customWidth="1"/>
+    <col min="6" max="17" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:17">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>1063</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>962</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
+      <c r="C4" s="4">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>1084</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>1540</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -1161,57 +1235,66 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="17" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.5" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:17">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Design/资源说明.xlsx
+++ b/Design/资源说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="14380"/>
+    <workbookView windowWidth="19070" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="金属类" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>资源名称</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>熔点</t>
+  </si>
+  <si>
+    <t>密度</t>
   </si>
   <si>
     <t>金</t>
@@ -77,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -112,59 +115,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -181,7 +131,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,32 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +222,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -249,10 +238,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,19 +268,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,163 +382,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,32 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,8 +504,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,8 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,137 +579,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,9 +720,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,17 +1073,19 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.4545454545455" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.36363636363636" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
+    <col min="1" max="1" width="12.4545454545455" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.36363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="12.6363636363636" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.4545454545455" style="2" customWidth="1"/>
-    <col min="6" max="17" width="9" style="2"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="8.90909090909091" style="2" customWidth="1"/>
+    <col min="8" max="17" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:17">
@@ -1105,7 +1107,9 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1117,112 +1121,124 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>50</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2">
         <v>1063</v>
       </c>
+      <c r="G2" s="2">
+        <v>193</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>67</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2">
         <v>962</v>
       </c>
+      <c r="G3" s="2">
+        <v>105</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
         <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>62</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2">
         <v>1084</v>
       </c>
+      <c r="G4" s="2">
+        <v>86</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
         <v>45</v>
       </c>
       <c r="D5" s="2">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>1540</v>
       </c>
+      <c r="G5" s="2">
+        <v>78</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
         <v>55</v>
       </c>
       <c r="D6" s="2">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2">
         <v>1421</v>
       </c>
+      <c r="G6" s="2">
+        <v>79</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
         <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>48</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2">
         <v>661</v>
+      </c>
+      <c r="G7" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1274,27 +1290,27 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
